--- a/Registro de Actividades.xlsx
+++ b/Registro de Actividades.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Ingeniero</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>Archivos</t>
+  </si>
+  <si>
+    <t>JECA</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +108,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -148,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +194,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,14 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -404,7 +420,7 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -427,7 +443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -445,6 +461,26 @@
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42035</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -454,12 +490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -467,12 +503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
